--- a/library/interfaces.xlsx
+++ b/library/interfaces.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Git\elem_altium_db2\library\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitProjects\elem_altium_db2\library\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C45E3136-04DE-496C-9B88-913408C4E63C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{422BF00D-F3A0-4280-BAA5-6F529FA91D95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7155" yWindow="3225" windowWidth="18705" windowHeight="10440" activeTab="4" xr2:uid="{EE2E7F00-6B54-4C0B-98D7-835E87062BAF}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{EE2E7F00-6B54-4C0B-98D7-835E87062BAF}"/>
   </bookViews>
   <sheets>
     <sheet name="can" sheetId="1" r:id="rId1"/>
@@ -361,13 +361,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Accent 3 2" xfId="1" xr:uid="{07D6D35A-A25D-4183-ACA2-756DA14CBAEA}"/>
@@ -683,10 +680,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67671D6E-5D55-4C0C-9FE7-A86F937C6875}">
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:G6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7:XFD34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -835,13 +832,6 @@
         <v>34</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="G8" s="2"/>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -849,10 +839,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E834B2D-3CFC-49B2-A2B4-67F2231F306F}">
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:G2"/>
+      <selection activeCell="A3" sqref="A3:XFD36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -906,20 +896,6 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="2"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="2"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="2"/>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -927,10 +903,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE4D8C3D-D832-496B-AB92-259D2AD291EC}">
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="A5" sqref="A5:XFD37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1039,50 +1015,6 @@
         <v>46</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="2"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="2"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="2"/>
-      <c r="B10" s="3"/>
-      <c r="E10" s="3"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="G11" s="2"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1093,7 +1025,7 @@
   <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="A10" sqref="A10:XFD37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1324,10 +1256,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A36817BF-F161-418A-9B8F-87A18459EBCD}">
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:XFD34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1432,56 +1364,6 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="E11" s="2"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="G13" s="2"/>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/library/interfaces.xlsx
+++ b/library/interfaces.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitProjects\elem_altium_db2\library\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{422BF00D-F3A0-4280-BAA5-6F529FA91D95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D73F18A2-F69E-4FA2-9FB0-3522D921929D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{EE2E7F00-6B54-4C0B-98D7-835E87062BAF}"/>
+    <workbookView xWindow="11580" yWindow="4545" windowWidth="13530" windowHeight="10395" activeTab="4" xr2:uid="{EE2E7F00-6B54-4C0B-98D7-835E87062BAF}"/>
   </bookViews>
   <sheets>
     <sheet name="can" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="94">
   <si>
     <t>Part Number</t>
   </si>
@@ -311,6 +311,15 @@
   </si>
   <si>
     <t>TUSB2036</t>
+  </si>
+  <si>
+    <t>ISO1050DW</t>
+  </si>
+  <si>
+    <t>ISO1050DW SOIC-16W</t>
+  </si>
+  <si>
+    <t>ISO1050</t>
   </si>
 </sst>
 </file>
@@ -680,15 +689,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67671D6E-5D55-4C0C-9FE7-A86F937C6875}">
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:XFD34"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.28515625" customWidth="1"/>
+    <col min="1" max="1" width="17.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -830,6 +839,29 @@
       </c>
       <c r="G6" t="s">
         <v>34</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>91</v>
+      </c>
+      <c r="B7" t="s">
+        <v>52</v>
+      </c>
+      <c r="C7" t="s">
+        <v>92</v>
+      </c>
+      <c r="D7" t="s">
+        <v>91</v>
+      </c>
+      <c r="E7" t="s">
+        <v>93</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="G7" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -842,10 +874,13 @@
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD36"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.5703125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
@@ -906,12 +941,12 @@
   <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:XFD37"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.28515625" customWidth="1"/>
+    <col min="1" max="1" width="19.5703125" customWidth="1"/>
     <col min="2" max="2" width="11.42578125" customWidth="1"/>
     <col min="3" max="3" width="22.5703125" customWidth="1"/>
     <col min="4" max="4" width="13.42578125" customWidth="1"/>
@@ -1025,12 +1060,12 @@
   <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:XFD37"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.28515625" customWidth="1"/>
+    <col min="1" max="1" width="18" customWidth="1"/>
     <col min="3" max="3" width="22.7109375" customWidth="1"/>
     <col min="4" max="4" width="16.85546875" customWidth="1"/>
     <col min="5" max="5" width="13.85546875" customWidth="1"/>
@@ -1258,13 +1293,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A36817BF-F161-418A-9B8F-87A18459EBCD}">
   <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:XFD34"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.5703125" customWidth="1"/>
+    <col min="1" max="1" width="22.140625" customWidth="1"/>
     <col min="3" max="3" width="27.7109375" customWidth="1"/>
     <col min="4" max="4" width="21.5703125" customWidth="1"/>
   </cols>
